--- a/biology/Zoologie/Belle_et_Sébastien___L'aventure_continue/Belle_et_Sébastien___L'aventure_continue.xlsx
+++ b/biology/Zoologie/Belle_et_Sébastien___L'aventure_continue/Belle_et_Sébastien___L'aventure_continue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle et Sébastien : L'aventure continue est un film français réalisé par Christian Duguay, sorti en 2015.
 Il s'agit de la suite du film Belle et Sébastien réalisé par Nicolas Vanier et sorti en décembre 2013.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nous sommes en septembre 1945, la guerre est finie. Sébastien a 10 ans et vit toujours à Saint-Martin avec Belle et César au chalet. Ils attendent tous impatiemment le retour d'Angelina, mais cette dernière ne revient pas. Elle a disparu lors d'un accident d'avion au-dessus des forêts alpines. Ils sont désormais les seuls à garder l'espoir de la retrouver. César connaît un homme qui pourrait les aider : l'aviateur Pierre. Belle et Sébastien vont devoir affronter de nouveaux dangers, traverser de nouvelles épreuves et affronter un secret qui pourrait changer leur vie à jamais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nous sommes en septembre 1945, la guerre est finie. Sébastien a 10 ans et vit toujours à Saint-Martin avec Belle et César au chalet. Ils attendent tous impatiemment le retour d'Angelina, mais cette dernière ne revient pas. Elle a disparu lors d'un accident d'avion au-dessus des forêts alpines. Ils sont désormais les seuls à garder l'espoir de la retrouver. César connaît un homme qui pourrait les aider : l'aviateur Pierre. Belle et Sébastien vont devoir affronter de nouveaux dangers, traverser de nouvelles épreuves et affronter un secret qui pourrait changer leur vie à jamais.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Belle et Sébastien, l'aventure continue
 Réalisation : Christian Duguay
@@ -555,22 +571,22 @@
 Son : François-Joseph Hors, Pierre-Jean Labrusse, Emmanuel Augeard
 Montage : Olivier Gajan
 Production : Sidonie Dumas, Gilles Legrand, Frédéric Brillion, Clément Miserez et Matthieu Warter
-Sociétés de production[2] : Radar Films, Epithète Films, Gaumont, M6 Films et Rhône-Alpes Cinéma, avec la participation de Canal+, Orange Cinéma Séries, M6, W9, la région Rhône-Alpes et le CNC
-Sociétés de distribution[3] : Gaumont Distribution (France) ; Belga Films (Belgique) ; Les Films Séville (Québec) ; Pathé Films AG (Suisse romande)
-Budget : 13 913 780 €[4]
+Sociétés de production : Radar Films, Epithète Films, Gaumont, M6 Films et Rhône-Alpes Cinéma, avec la participation de Canal+, Orange Cinéma Séries, M6, W9, la région Rhône-Alpes et le CNC
+Sociétés de distribution : Gaumont Distribution (France) ; Belga Films (Belgique) ; Les Films Séville (Québec) ; Pathé Films AG (Suisse romande)
+Budget : 13 913 780 €
 Pays de production :  France
 Langues originales : français, italien
-Format[5] : couleur - 2,35:1 (Cinémascope)
+Format : couleur - 2,35:1 (Cinémascope)
 Genre : aventures
 Durée : 97 minutes
-Dates de sortie[6] :
-France, Belgique, Suisse romande : 9 décembre 2015[7],[8]
-Québec : 19 février 2016[9]
-Classification[10] :
-France : tous publics[11]
-Belgique : tous publics (Alle Leeftijden)[7]
-Suisse romande : interdit aux moins de 6 ans[12]
-Québec : tous publics (G - General Rating)[9]</t>
+Dates de sortie :
+France, Belgique, Suisse romande : 9 décembre 2015,
+Québec : 19 février 2016
+Classification :
+France : tous publics
+Belgique : tous publics (Alle Leeftijden)
+Suisse romande : interdit aux moins de 6 ans
+Québec : tous publics (G - General Rating)</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Félix Bossuet : Sébastien
 Thierry Neuvic : Pierre Marceau, aviateur, le père de Sébastien
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,8 +661,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a débuté le 4 août 2014 en Haute Maurienne Vanoise — lieu de tournage du premier film — et s'est poursuivi jusqu'au 17 octobre 2014 dans l'Ain.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a débuté le 4 août 2014 en Haute Maurienne Vanoise — lieu de tournage du premier film — et s'est poursuivi jusqu'au 17 octobre 2014 dans l'Ain.
 </t>
         </is>
       </c>
@@ -655,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +696,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson du générique de fin, Belle, est interprétée par Zaz.
 </t>
@@ -686,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -704,14 +729,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 2016 et 2017, Belle et Sébastien, l'aventure continue a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense[13].
-Récompenses
-Festival international du film de Minneapolis St.Paul (Minneapolis St. Paul International Film Festival) 2017 : Meilleur film enfantin pour Christian Duguay.
-Nominations
-Festival international du film de Seattle 2016 : nommé au Prix du jury des jeunes du film familial pour Christian Duguay.
-Sommet numérique de Paris Images (Paris Images Digital Summit) 2016 : Meilleur superviseur VFX - long métrage pour Benjamin Ageorges et Stéphane Bidault[14].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2016 et 2017, Belle et Sébastien, l'aventure continue a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense.
+</t>
         </is>
       </c>
     </row>
@@ -721,7 +744,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -736,13 +759,91 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival international du film de Minneapolis St.Paul (Minneapolis St. Paul International Film Festival) 2017 : Meilleur film enfantin pour Christian Duguay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Festival international du film de Seattle 2016 : nommé au Prix du jury des jeunes du film familial pour Christian Duguay.
+Sommet numérique de Paris Images (Paris Images Digital Summit) 2016 : Meilleur superviseur VFX - long métrage pour Benjamin Ageorges et Stéphane Bidault.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Belle_et_Sébastien_:_L'aventure_continue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_et_S%C3%A9bastien_:_L%27aventure_continue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suite
-Le 12 octobre 2016, Clovis Cornillac annonce qu'il réalise un troisième film. Il incarne également le rôle du méchant du film[15]. Le tournage a lieu durant l'hiver 2016-2017 (en janvier-février) en Haute Maurienne Vanoise[16] et dans le Briançonnais[17].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 octobre 2016, Clovis Cornillac annonce qu'il réalise un troisième film. Il incarne également le rôle du méchant du film. Le tournage a lieu durant l'hiver 2016-2017 (en janvier-février) en Haute Maurienne Vanoise et dans le Briançonnais.
 </t>
         </is>
       </c>
